--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -81,21 +81,9 @@
     <t>additional-income</t>
   </si>
   <si>
-    <t>retirement-duration-container</t>
-  </si>
-  <si>
     <t>include-inflation</t>
   </si>
   <si>
-    <t>retirement-annual-income-container</t>
-  </si>
-  <si>
-    <t>pre-retirement-roi-container</t>
-  </si>
-  <si>
-    <t>post-retirement-roi-container</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -120,34 +108,52 @@
     <t>100000</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4000</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>retirement-duration</t>
+  </si>
+  <si>
+    <t>expected_inflation_rate</t>
+  </si>
+  <si>
+    <t>retirement_annual_income</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>pre_retirement_invst_return</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>post_retirement_invst_return</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>social_security_override</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,16 +536,17 @@
     <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -578,48 +585,54 @@
         <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>12</v>
@@ -629,40 +642,56 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="N2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -674,42 +703,58 @@
         <v>16</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>12</v>
@@ -721,42 +766,58 @@
         <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>12</v>
@@ -768,25 +829,31 @@
         <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>43</v>
+      <c r="T5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
